--- a/test_sheets/design/canva.-windows.xlsx
+++ b/test_sheets/design/canva.-windows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WebProjects\cheatsheet\test_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WebProjects\cheatsheet\test_sheets\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57056168-E07A-40B0-A675-50794C1C49D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FC45AD-6923-4385-B0B3-7F2CBFDF8BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25965" yWindow="0" windowWidth="25635" windowHeight="21150" xr2:uid="{07F3214F-B16B-4F28-ADC0-19EE69C58A1F}"/>
+    <workbookView xWindow="53070" yWindow="6810" windowWidth="21600" windowHeight="11295" xr2:uid="{07F3214F-B16B-4F28-ADC0-19EE69C58A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
   <si>
     <t>General Shortcuts</t>
   </si>
@@ -285,6 +285,18 @@
   </si>
   <si>
     <t>Exit any active dialog or close a modal.</t>
+  </si>
+  <si>
+    <t>sectopm</t>
+  </si>
+  <si>
+    <t>comman</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>colour</t>
   </si>
 </sst>
 </file>
@@ -678,26 +690,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4850F2-3C7B-46A6-8B80-6A7F401918F6}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="45">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45">
@@ -705,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -719,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -733,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -747,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -761,24 +773,24 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75">
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -789,27 +801,27 @@
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60">
+    <row r="9" spans="1:4" ht="75">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60">
@@ -817,10 +829,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
@@ -831,10 +843,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
@@ -845,10 +857,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
@@ -859,27 +871,27 @@
         <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45">
+    <row r="14" spans="1:4" ht="60">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45">
@@ -887,10 +899,10 @@
         <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>33</v>
@@ -901,52 +913,52 @@
         <v>30</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60">
+    <row r="17" spans="1:4" ht="45">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45">
+    <row r="18" spans="1:4" ht="60">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60">
+    <row r="19" spans="1:4" ht="45">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>33</v>
@@ -957,10 +969,10 @@
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>33</v>
@@ -971,10 +983,10 @@
         <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>33</v>
@@ -982,16 +994,16 @@
     </row>
     <row r="22" spans="1:4" ht="60">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60">
@@ -999,10 +1011,10 @@
         <v>48</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>51</v>
@@ -1013,24 +1025,24 @@
         <v>48</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="90">
+    <row r="25" spans="1:4" ht="60">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>51</v>
@@ -1041,111 +1053,111 @@
         <v>48</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60">
+    <row r="27" spans="1:4" ht="90">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="75">
+    <row r="29" spans="1:4" ht="45">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="60">
+    <row r="30" spans="1:4" ht="75">
       <c r="A30" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="60">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="75">
+    <row r="32" spans="1:4" ht="45">
       <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="45">
+    <row r="33" spans="1:4" ht="75">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45">
@@ -1153,26 +1165,40 @@
         <v>75</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="75">
+    <row r="35" spans="1:4" ht="45">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="75">
+      <c r="A36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>78</v>
       </c>
     </row>
